--- a/data/pca/factorExposure/factorExposure_2009-05-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01715609394812747</v>
+        <v>0.01651862160331964</v>
       </c>
       <c r="C2">
-        <v>-0.001569135530981432</v>
+        <v>-0.001064957396904187</v>
       </c>
       <c r="D2">
-        <v>0.00998868080754659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009869028993504553</v>
+      </c>
+      <c r="E2">
+        <v>-0.002215648003265468</v>
+      </c>
+      <c r="F2">
+        <v>0.01190057566262197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08940776076883544</v>
+        <v>0.09181889725437925</v>
       </c>
       <c r="C4">
-        <v>-0.02002788821540768</v>
+        <v>-0.015302943505881</v>
       </c>
       <c r="D4">
-        <v>0.07760454877718462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08223958852961408</v>
+      </c>
+      <c r="E4">
+        <v>-0.02718007102947753</v>
+      </c>
+      <c r="F4">
+        <v>-0.03274706285666956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4.437842151636499e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-4.207363485321659e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0001114833828490414</v>
+      </c>
+      <c r="E5">
+        <v>3.708419235402196e-05</v>
+      </c>
+      <c r="F5">
+        <v>6.289621800253745e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.153257571693231</v>
+        <v>0.1616238180667948</v>
       </c>
       <c r="C6">
-        <v>-0.03086752488798327</v>
+        <v>-0.02991115211371232</v>
       </c>
       <c r="D6">
-        <v>-0.03576077363879675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02594056499203445</v>
+      </c>
+      <c r="E6">
+        <v>-0.01070265951995468</v>
+      </c>
+      <c r="F6">
+        <v>-0.0404385215910114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06020289766705961</v>
+        <v>0.06245809419397041</v>
       </c>
       <c r="C7">
-        <v>-0.002142765893466403</v>
+        <v>0.00107219152176388</v>
       </c>
       <c r="D7">
-        <v>0.04810124759065351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05360031687900346</v>
+      </c>
+      <c r="E7">
+        <v>-0.01573830314351292</v>
+      </c>
+      <c r="F7">
+        <v>-0.04928057621661955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.0612251253795188</v>
+        <v>0.05712600187314772</v>
       </c>
       <c r="C8">
-        <v>0.009894940673705166</v>
+        <v>0.01170329953173818</v>
       </c>
       <c r="D8">
-        <v>0.02657431863725524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03028858249540811</v>
+      </c>
+      <c r="E8">
+        <v>-0.01931247061357474</v>
+      </c>
+      <c r="F8">
+        <v>0.02894344968456967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06948752585012151</v>
+        <v>0.07136345027011838</v>
       </c>
       <c r="C9">
-        <v>-0.01599075700007732</v>
+        <v>-0.01085881738082226</v>
       </c>
       <c r="D9">
-        <v>0.08029382820339798</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08591566943041423</v>
+      </c>
+      <c r="E9">
+        <v>-0.02548977453327133</v>
+      </c>
+      <c r="F9">
+        <v>-0.04913250664586893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08551079707078615</v>
+        <v>0.08704430890969427</v>
       </c>
       <c r="C10">
-        <v>-0.01653078106076175</v>
+        <v>-0.02176860868484612</v>
       </c>
       <c r="D10">
-        <v>-0.165133080290761</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1588561728496978</v>
+      </c>
+      <c r="E10">
+        <v>0.0327180858570002</v>
+      </c>
+      <c r="F10">
+        <v>0.05854728813545367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09062900711037956</v>
+        <v>0.08756764575086988</v>
       </c>
       <c r="C11">
-        <v>-0.01747450069620449</v>
+        <v>-0.01220793823910027</v>
       </c>
       <c r="D11">
-        <v>0.111768998813626</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1183537343543339</v>
+      </c>
+      <c r="E11">
+        <v>-0.05260254285410942</v>
+      </c>
+      <c r="F11">
+        <v>-0.02546922857945536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09676263746754876</v>
+        <v>0.09094281411705253</v>
       </c>
       <c r="C12">
-        <v>-0.015808815109484</v>
+        <v>-0.009681216460216498</v>
       </c>
       <c r="D12">
-        <v>0.1200095916570968</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1342149897318697</v>
+      </c>
+      <c r="E12">
+        <v>-0.05206538367766363</v>
+      </c>
+      <c r="F12">
+        <v>-0.03151720671761203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04490515972184697</v>
+        <v>0.04353877867206826</v>
       </c>
       <c r="C13">
-        <v>-0.006713240797174822</v>
+        <v>-0.002957036242858286</v>
       </c>
       <c r="D13">
-        <v>0.04509702379666625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05438968425372142</v>
+      </c>
+      <c r="E13">
+        <v>-0.0003621680882214514</v>
+      </c>
+      <c r="F13">
+        <v>-0.004211883389755558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01998226505682091</v>
+        <v>0.02385235951442016</v>
       </c>
       <c r="C14">
-        <v>-0.01534723069340982</v>
+        <v>-0.0141283990317931</v>
       </c>
       <c r="D14">
-        <v>0.03241178099084132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03349693987663662</v>
+      </c>
+      <c r="E14">
+        <v>-0.02242396307124134</v>
+      </c>
+      <c r="F14">
+        <v>-0.01208502340360969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03441549587345788</v>
+        <v>0.0343895939470908</v>
       </c>
       <c r="C15">
-        <v>-0.007664814345415154</v>
+        <v>-0.005892673816009122</v>
       </c>
       <c r="D15">
-        <v>0.04606093142315114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04669267730863951</v>
+      </c>
+      <c r="E15">
+        <v>-0.008657017722617838</v>
+      </c>
+      <c r="F15">
+        <v>-0.02970845494164727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07479270829697963</v>
+        <v>0.07233001869455334</v>
       </c>
       <c r="C16">
-        <v>-0.00766135571456564</v>
+        <v>-0.00202745561389183</v>
       </c>
       <c r="D16">
-        <v>0.1156787822963517</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1296492252968663</v>
+      </c>
+      <c r="E16">
+        <v>-0.06546713496873866</v>
+      </c>
+      <c r="F16">
+        <v>-0.02876848031428409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.00125248794740324</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0003525206756155427</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.00209397263283468</v>
+      </c>
+      <c r="E17">
+        <v>-0.001703753250879566</v>
+      </c>
+      <c r="F17">
+        <v>0.002275292587313135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02494537012327925</v>
+        <v>0.04260915100894742</v>
       </c>
       <c r="C18">
-        <v>0.001818528320376679</v>
+        <v>0.001779897190142527</v>
       </c>
       <c r="D18">
-        <v>0.0224435898274321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01628372845109279</v>
+      </c>
+      <c r="E18">
+        <v>0.004903523270274693</v>
+      </c>
+      <c r="F18">
+        <v>0.009302948454449195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06431205448655046</v>
+        <v>0.06283137856686885</v>
       </c>
       <c r="C20">
-        <v>-0.005744209734737667</v>
+        <v>-0.00182130044525996</v>
       </c>
       <c r="D20">
-        <v>0.07257899432378172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07904390632124228</v>
+      </c>
+      <c r="E20">
+        <v>-0.06192630209372191</v>
+      </c>
+      <c r="F20">
+        <v>-0.02951619942635618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04100597066782945</v>
+        <v>0.04270519195504903</v>
       </c>
       <c r="C21">
-        <v>-0.009985872724954086</v>
+        <v>-0.007362233506501926</v>
       </c>
       <c r="D21">
-        <v>0.03411332560999437</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03578615939472921</v>
+      </c>
+      <c r="E21">
+        <v>-0.002789526110860807</v>
+      </c>
+      <c r="F21">
+        <v>0.0246107253043284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04059152874444156</v>
+        <v>0.04223788115886633</v>
       </c>
       <c r="C22">
-        <v>-0.001316512277946784</v>
+        <v>-0.0009420894108631679</v>
       </c>
       <c r="D22">
-        <v>0.0008614486504534175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.006822092863066553</v>
+      </c>
+      <c r="E22">
+        <v>-0.03726811767998157</v>
+      </c>
+      <c r="F22">
+        <v>0.04816375806714038</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04054660346562632</v>
+        <v>0.04220710705344972</v>
       </c>
       <c r="C23">
-        <v>-0.001302753258523653</v>
+        <v>-0.0009305379624741565</v>
       </c>
       <c r="D23">
-        <v>0.0008901137779269609</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.006836635830670183</v>
+      </c>
+      <c r="E23">
+        <v>-0.03729841120074774</v>
+      </c>
+      <c r="F23">
+        <v>0.0482184999203085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08237708125054811</v>
+        <v>0.07846898450982508</v>
       </c>
       <c r="C24">
-        <v>-0.008318520535016166</v>
+        <v>-0.002875902825495014</v>
       </c>
       <c r="D24">
-        <v>0.1166071862598612</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1222709299767935</v>
+      </c>
+      <c r="E24">
+        <v>-0.05271095474502457</v>
+      </c>
+      <c r="F24">
+        <v>-0.03157954244533828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08667630344188573</v>
+        <v>0.0831671068858835</v>
       </c>
       <c r="C25">
-        <v>-0.01054851694307357</v>
+        <v>-0.005635417323358431</v>
       </c>
       <c r="D25">
-        <v>0.1043610058683351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1109883169085466</v>
+      </c>
+      <c r="E25">
+        <v>-0.03562518385298673</v>
+      </c>
+      <c r="F25">
+        <v>-0.0285776317622994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05790521500818743</v>
+        <v>0.0609596843644473</v>
       </c>
       <c r="C26">
-        <v>-0.01849383555967631</v>
+        <v>-0.01526327642911485</v>
       </c>
       <c r="D26">
-        <v>0.03478394561436479</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04499815319003343</v>
+      </c>
+      <c r="E26">
+        <v>-0.033383997234272</v>
+      </c>
+      <c r="F26">
+        <v>0.007446237700221078</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.134848542627714</v>
+        <v>0.1439290264005136</v>
       </c>
       <c r="C28">
-        <v>-0.01623796691192756</v>
+        <v>-0.02403928123082226</v>
       </c>
       <c r="D28">
-        <v>-0.2641233560775065</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2583550090608323</v>
+      </c>
+      <c r="E28">
+        <v>0.06649365671927021</v>
+      </c>
+      <c r="F28">
+        <v>-0.004542949994503831</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02622321942944926</v>
+        <v>0.02888586833128715</v>
       </c>
       <c r="C29">
-        <v>-0.01005583569245494</v>
+        <v>-0.009268154877099043</v>
       </c>
       <c r="D29">
-        <v>0.029743729157085</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03048170713561922</v>
+      </c>
+      <c r="E29">
+        <v>-0.01872529769088836</v>
+      </c>
+      <c r="F29">
+        <v>0.01291283830173692</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05901386895622174</v>
+        <v>0.05630895892089218</v>
       </c>
       <c r="C30">
-        <v>-0.008008055929983342</v>
+        <v>-0.002908482915879953</v>
       </c>
       <c r="D30">
-        <v>0.08021864551448503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0883035541078564</v>
+      </c>
+      <c r="E30">
+        <v>-0.01489618652968279</v>
+      </c>
+      <c r="F30">
+        <v>-0.07808282731572445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05077585996038984</v>
+        <v>0.05125932276674061</v>
       </c>
       <c r="C31">
-        <v>-0.01774868036207656</v>
+        <v>-0.01642679004345796</v>
       </c>
       <c r="D31">
-        <v>0.02175971362638672</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02453985957445066</v>
+      </c>
+      <c r="E31">
+        <v>-0.02954850065684488</v>
+      </c>
+      <c r="F31">
+        <v>0.001073019932846364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04786332022308555</v>
+        <v>0.0517049854326754</v>
       </c>
       <c r="C32">
-        <v>-0.002287111706354341</v>
+        <v>0.001017002030344648</v>
       </c>
       <c r="D32">
-        <v>0.02854078568723519</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03343162830673109</v>
+      </c>
+      <c r="E32">
+        <v>-0.03496080982421593</v>
+      </c>
+      <c r="F32">
+        <v>-0.002846279579977111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.0909651204851438</v>
+        <v>0.09062092148028751</v>
       </c>
       <c r="C33">
-        <v>-0.01401582847358115</v>
+        <v>-0.008130981740519454</v>
       </c>
       <c r="D33">
-        <v>0.09121813389917634</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1048210713693521</v>
+      </c>
+      <c r="E33">
+        <v>-0.04938388073714943</v>
+      </c>
+      <c r="F33">
+        <v>-0.04307429203428682</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06917104649327539</v>
+        <v>0.06755623141290422</v>
       </c>
       <c r="C34">
-        <v>-0.01592853778289518</v>
+        <v>-0.01115553946976953</v>
       </c>
       <c r="D34">
-        <v>0.09785616034802644</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1098792786011115</v>
+      </c>
+      <c r="E34">
+        <v>-0.03960716169051918</v>
+      </c>
+      <c r="F34">
+        <v>-0.03529318015472657</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02590624972348974</v>
+        <v>0.02740345904968039</v>
       </c>
       <c r="C35">
-        <v>-0.004156649921935808</v>
+        <v>-0.003638899660933798</v>
       </c>
       <c r="D35">
-        <v>0.008325733817914464</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0118059540700783</v>
+      </c>
+      <c r="E35">
+        <v>-0.01571735642269665</v>
+      </c>
+      <c r="F35">
+        <v>-0.0001449556162296751</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02538991240549394</v>
+        <v>0.02883131409108563</v>
       </c>
       <c r="C36">
-        <v>-0.008347543559695464</v>
+        <v>-0.007255748083695936</v>
       </c>
       <c r="D36">
-        <v>0.03852085278634783</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04006665904291493</v>
+      </c>
+      <c r="E36">
+        <v>-0.02014861471442649</v>
+      </c>
+      <c r="F36">
+        <v>-0.01518041331666063</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.002222337913726612</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006451401427405204</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003215440766219475</v>
+      </c>
+      <c r="E37">
+        <v>-0.0004072356841660966</v>
+      </c>
+      <c r="F37">
+        <v>0.00145515842120198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1102558884008793</v>
+        <v>0.09930209547799916</v>
       </c>
       <c r="C39">
-        <v>-0.02316341851256103</v>
+        <v>-0.01672295888810194</v>
       </c>
       <c r="D39">
-        <v>0.1493949652140053</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1524472767927667</v>
+      </c>
+      <c r="E39">
+        <v>-0.06255063726427221</v>
+      </c>
+      <c r="F39">
+        <v>-0.02185996788660417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03898572569092888</v>
+        <v>0.04446827253368605</v>
       </c>
       <c r="C40">
-        <v>-0.009607010688498809</v>
+        <v>-0.008219689564607318</v>
       </c>
       <c r="D40">
-        <v>0.02422796712779271</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03304944462644542</v>
+      </c>
+      <c r="E40">
+        <v>-0.003929505009563092</v>
+      </c>
+      <c r="F40">
+        <v>0.01560894208267147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02449547355050916</v>
+        <v>0.02694691890687984</v>
       </c>
       <c r="C41">
-        <v>-0.007492394055620733</v>
+        <v>-0.006852172069497802</v>
       </c>
       <c r="D41">
-        <v>0.007942065249151238</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01002193182874998</v>
+      </c>
+      <c r="E41">
+        <v>-0.01298090092515677</v>
+      </c>
+      <c r="F41">
+        <v>0.007332793993210424</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04143434399121693</v>
+        <v>0.03992805900575721</v>
       </c>
       <c r="C43">
-        <v>-0.008508126658146336</v>
+        <v>-0.007796073559810932</v>
       </c>
       <c r="D43">
-        <v>0.01789402364664042</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01965424765360359</v>
+      </c>
+      <c r="E43">
+        <v>-0.02753368013213048</v>
+      </c>
+      <c r="F43">
+        <v>0.01619766008737748</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06761242769330914</v>
+        <v>0.07730981364706432</v>
       </c>
       <c r="C44">
-        <v>-0.02422682308491079</v>
+        <v>-0.02030329716354321</v>
       </c>
       <c r="D44">
-        <v>0.09498116653550569</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09559003917642078</v>
+      </c>
+      <c r="E44">
+        <v>-0.06324951462642527</v>
+      </c>
+      <c r="F44">
+        <v>-0.1684892974352082</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02245113310508883</v>
+        <v>0.02496805359779293</v>
       </c>
       <c r="C46">
-        <v>-0.004595968602447983</v>
+        <v>-0.003762638507299628</v>
       </c>
       <c r="D46">
-        <v>0.01083193947726564</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01421872874163754</v>
+      </c>
+      <c r="E46">
+        <v>-0.03192828727727286</v>
+      </c>
+      <c r="F46">
+        <v>0.004859145531432349</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05362105251049114</v>
+        <v>0.05288393736458255</v>
       </c>
       <c r="C47">
-        <v>-0.005739176905843261</v>
+        <v>-0.004750250582603629</v>
       </c>
       <c r="D47">
-        <v>0.007456216589937429</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01088092429640858</v>
+      </c>
+      <c r="E47">
+        <v>-0.02464493854443318</v>
+      </c>
+      <c r="F47">
+        <v>0.03166622831075483</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04841161045892241</v>
+        <v>0.05134642400414323</v>
       </c>
       <c r="C48">
-        <v>-0.00531750960646696</v>
+        <v>-0.002662175870262859</v>
       </c>
       <c r="D48">
-        <v>0.04782777365994319</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05074959057813632</v>
+      </c>
+      <c r="E48">
+        <v>0.002908405686734952</v>
+      </c>
+      <c r="F48">
+        <v>-0.01264283027566437</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1982040813362219</v>
+        <v>0.1997719349224115</v>
       </c>
       <c r="C49">
-        <v>-0.02391442205603368</v>
+        <v>-0.02170867029948329</v>
       </c>
       <c r="D49">
-        <v>-0.01270918924073483</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.004212105869251966</v>
+      </c>
+      <c r="E49">
+        <v>-0.02782149382168051</v>
+      </c>
+      <c r="F49">
+        <v>-0.05027155698607224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04943377741835237</v>
+        <v>0.05166956440117218</v>
       </c>
       <c r="C50">
-        <v>-0.0134324049098644</v>
+        <v>-0.01206460340300885</v>
       </c>
       <c r="D50">
-        <v>0.02152502633474825</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02434149455498831</v>
+      </c>
+      <c r="E50">
+        <v>-0.03251356998376784</v>
+      </c>
+      <c r="F50">
+        <v>-0.00936867770701731</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1544059041329643</v>
+        <v>0.1475204602195449</v>
       </c>
       <c r="C52">
-        <v>-0.0219226230518488</v>
+        <v>-0.01974472135874669</v>
       </c>
       <c r="D52">
-        <v>0.04080151761746557</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04238246565214292</v>
+      </c>
+      <c r="E52">
+        <v>-0.02060912010600245</v>
+      </c>
+      <c r="F52">
+        <v>-0.04209723214525134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1739105722789809</v>
+        <v>0.1680949531924734</v>
       </c>
       <c r="C53">
-        <v>-0.02312260702614886</v>
+        <v>-0.02289289849862727</v>
       </c>
       <c r="D53">
-        <v>0.004648628430128269</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005762491754590595</v>
+      </c>
+      <c r="E53">
+        <v>-0.02676790673293118</v>
+      </c>
+      <c r="F53">
+        <v>-0.07546097418898194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01681057303542949</v>
+        <v>0.01890121226550883</v>
       </c>
       <c r="C54">
-        <v>-0.01216942756632621</v>
+        <v>-0.01102632836376593</v>
       </c>
       <c r="D54">
-        <v>0.02911344085046378</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02941666705220826</v>
+      </c>
+      <c r="E54">
+        <v>-0.02127197064863479</v>
+      </c>
+      <c r="F54">
+        <v>0.00179234625147876</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1183175469795884</v>
+        <v>0.1164026211913819</v>
       </c>
       <c r="C55">
-        <v>-0.02025937934952103</v>
+        <v>-0.02007302431819478</v>
       </c>
       <c r="D55">
-        <v>0.003783461234260768</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008428703455114201</v>
+      </c>
+      <c r="E55">
+        <v>-0.02544505191517153</v>
+      </c>
+      <c r="F55">
+        <v>-0.04679724368494002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1808892813530221</v>
+        <v>0.1755586070194275</v>
       </c>
       <c r="C56">
-        <v>-0.02126243929737963</v>
+        <v>-0.02119482645099635</v>
       </c>
       <c r="D56">
-        <v>-0.007324050286203255</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.002509188894696179</v>
+      </c>
+      <c r="E56">
+        <v>-0.03072489274050708</v>
+      </c>
+      <c r="F56">
+        <v>-0.05615475174891678</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04629231911743182</v>
+        <v>0.04502731895883581</v>
       </c>
       <c r="C58">
-        <v>-0.0048830609112148</v>
+        <v>-4.777376781292941e-06</v>
       </c>
       <c r="D58">
-        <v>0.06622736405697348</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07663928333120479</v>
+      </c>
+      <c r="E58">
+        <v>-0.03568953040622135</v>
+      </c>
+      <c r="F58">
+        <v>0.03644963599876154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1611403308839605</v>
+        <v>0.1676661618051108</v>
       </c>
       <c r="C59">
-        <v>-0.01794813507705184</v>
+        <v>-0.02441344298312381</v>
       </c>
       <c r="D59">
-        <v>-0.2227519697944525</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2162222172798178</v>
+      </c>
+      <c r="E59">
+        <v>0.05126134246219393</v>
+      </c>
+      <c r="F59">
+        <v>0.04187315907711852</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2372268790760402</v>
+        <v>0.2292491375659317</v>
       </c>
       <c r="C60">
-        <v>-0.005135144664232386</v>
+        <v>-0.00184153917438392</v>
       </c>
       <c r="D60">
-        <v>0.03621284236184239</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03873498477534789</v>
+      </c>
+      <c r="E60">
+        <v>0.002276025423156739</v>
+      </c>
+      <c r="F60">
+        <v>-0.007073609272897374</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08062521244631347</v>
+        <v>0.07414768750630685</v>
       </c>
       <c r="C61">
-        <v>-0.01694824967864129</v>
+        <v>-0.01145320798964362</v>
       </c>
       <c r="D61">
-        <v>0.1109229807492412</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1172324684603064</v>
+      </c>
+      <c r="E61">
+        <v>-0.04060560525202156</v>
+      </c>
+      <c r="F61">
+        <v>-0.007337909585781789</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.172947965658958</v>
+        <v>0.1688873936620868</v>
       </c>
       <c r="C62">
-        <v>-0.02495281327310826</v>
+        <v>-0.0238336654905103</v>
       </c>
       <c r="D62">
-        <v>-0.0001583250610987742</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006507954631946941</v>
+      </c>
+      <c r="E62">
+        <v>-0.03330128212957125</v>
+      </c>
+      <c r="F62">
+        <v>-0.04165732242064595</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04196972550744576</v>
+        <v>0.04616508123285783</v>
       </c>
       <c r="C63">
-        <v>-0.005829821499611957</v>
+        <v>-0.002490743261906554</v>
       </c>
       <c r="D63">
-        <v>0.04988723449256729</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06044620383868362</v>
+      </c>
+      <c r="E63">
+        <v>-0.02600691950388139</v>
+      </c>
+      <c r="F63">
+        <v>-0.0002613882834247031</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1140446740980076</v>
+        <v>0.1111158021114654</v>
       </c>
       <c r="C64">
-        <v>-0.0170238276400438</v>
+        <v>-0.01374718347571243</v>
       </c>
       <c r="D64">
-        <v>0.03434883043480629</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04187181590859767</v>
+      </c>
+      <c r="E64">
+        <v>-0.02489930795466374</v>
+      </c>
+      <c r="F64">
+        <v>-0.02721466266123786</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1452769354326734</v>
+        <v>0.1523119963225166</v>
       </c>
       <c r="C65">
-        <v>-0.03721994189104819</v>
+        <v>-0.03677712831157856</v>
       </c>
       <c r="D65">
-        <v>-0.05740953860970439</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04509100583350197</v>
+      </c>
+      <c r="E65">
+        <v>-0.005209382385351852</v>
+      </c>
+      <c r="F65">
+        <v>-0.037511213234292</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1328309508757973</v>
+        <v>0.1191803272913185</v>
       </c>
       <c r="C66">
-        <v>-0.02166200458600825</v>
+        <v>-0.01496769460809402</v>
       </c>
       <c r="D66">
-        <v>0.1328887458378292</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1418996847233211</v>
+      </c>
+      <c r="E66">
+        <v>-0.06676844822878922</v>
+      </c>
+      <c r="F66">
+        <v>-0.0277547081265707</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06314557348472397</v>
+        <v>0.0559421685832859</v>
       </c>
       <c r="C67">
-        <v>-0.006434724703478176</v>
+        <v>-0.004056617891667337</v>
       </c>
       <c r="D67">
-        <v>0.05628659304372478</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05907310320150513</v>
+      </c>
+      <c r="E67">
+        <v>-0.02224773966141086</v>
+      </c>
+      <c r="F67">
+        <v>0.03459048363311455</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1085689227788838</v>
+        <v>0.1182393802382638</v>
       </c>
       <c r="C68">
-        <v>-0.02632420023346184</v>
+        <v>-0.03484261556532862</v>
       </c>
       <c r="D68">
-        <v>-0.2634358039275023</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2601747683479869</v>
+      </c>
+      <c r="E68">
+        <v>0.08850192943504556</v>
+      </c>
+      <c r="F68">
+        <v>-0.0006284768078418101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.0392104352424251</v>
+        <v>0.03835925220799423</v>
       </c>
       <c r="C69">
-        <v>-0.002549516805859968</v>
+        <v>-0.001582490871281384</v>
       </c>
       <c r="D69">
-        <v>0.007994725847848713</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009464797123590539</v>
+      </c>
+      <c r="E69">
+        <v>-0.02844277538912669</v>
+      </c>
+      <c r="F69">
+        <v>0.0007167433813530783</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06761977336707665</v>
+        <v>0.06729359095458419</v>
       </c>
       <c r="C70">
-        <v>0.02411397674604503</v>
+        <v>0.02637705329817379</v>
       </c>
       <c r="D70">
-        <v>0.02354867024855387</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.0286157998335456</v>
+      </c>
+      <c r="E70">
+        <v>0.02514033541667836</v>
+      </c>
+      <c r="F70">
+        <v>0.1824144654100031</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.127255910078646</v>
+        <v>0.1382910096005949</v>
       </c>
       <c r="C71">
-        <v>-0.03106386119361815</v>
+        <v>-0.03948747390496677</v>
       </c>
       <c r="D71">
-        <v>-0.2783174790318991</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2688968613557527</v>
+      </c>
+      <c r="E71">
+        <v>0.09746297078313375</v>
+      </c>
+      <c r="F71">
+        <v>-0.005782977277392179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1366295625652267</v>
+        <v>0.1436769980027405</v>
       </c>
       <c r="C72">
-        <v>-0.02935149365985025</v>
+        <v>-0.02962173563738016</v>
       </c>
       <c r="D72">
-        <v>-0.0007649370008348961</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.003942097535653262</v>
+      </c>
+      <c r="E72">
+        <v>-0.03904000568987196</v>
+      </c>
+      <c r="F72">
+        <v>-0.02812205938333898</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2026759137729973</v>
+        <v>0.2034628537681384</v>
       </c>
       <c r="C73">
-        <v>-0.0190036922202488</v>
+        <v>-0.01510008373856535</v>
       </c>
       <c r="D73">
-        <v>0.008508643688920469</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01865749733111311</v>
+      </c>
+      <c r="E73">
+        <v>-0.06272461731269166</v>
+      </c>
+      <c r="F73">
+        <v>-0.04416460675020686</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.0910513192699275</v>
+        <v>0.09199713615956563</v>
       </c>
       <c r="C74">
-        <v>-0.01507099037763034</v>
+        <v>-0.01440061559901738</v>
       </c>
       <c r="D74">
-        <v>0.01354605115508615</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01650009908000485</v>
+      </c>
+      <c r="E74">
+        <v>-0.04204483440220072</v>
+      </c>
+      <c r="F74">
+        <v>-0.05261481253618785</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1332079630954733</v>
+        <v>0.1253567227891688</v>
       </c>
       <c r="C75">
-        <v>-0.03251545148780325</v>
+        <v>-0.03056715224836166</v>
       </c>
       <c r="D75">
-        <v>0.02335212789203802</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02924578106952472</v>
+      </c>
+      <c r="E75">
+        <v>-0.05529479307529765</v>
+      </c>
+      <c r="F75">
+        <v>-0.02152820279534385</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08137381291014779</v>
+        <v>0.09199584752860931</v>
       </c>
       <c r="C77">
-        <v>-0.01460954654824991</v>
+        <v>-0.00939432668668746</v>
       </c>
       <c r="D77">
-        <v>0.1132206285813269</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1166161707911956</v>
+      </c>
+      <c r="E77">
+        <v>-0.0484466830066032</v>
+      </c>
+      <c r="F77">
+        <v>-0.03570091561012991</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1016848982648348</v>
+        <v>0.1014509302907399</v>
       </c>
       <c r="C78">
-        <v>-0.04529828739756794</v>
+        <v>-0.04123668603053551</v>
       </c>
       <c r="D78">
-        <v>0.1112212051864589</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1103441999392139</v>
+      </c>
+      <c r="E78">
+        <v>-0.07542224430029149</v>
+      </c>
+      <c r="F78">
+        <v>-0.04996758772238512</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1667982800294962</v>
+        <v>0.1634029458133655</v>
       </c>
       <c r="C79">
-        <v>-0.02773925812488115</v>
+        <v>-0.02640258020694601</v>
       </c>
       <c r="D79">
-        <v>0.006061290687949832</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01234760388409504</v>
+      </c>
+      <c r="E79">
+        <v>-0.04459169889749381</v>
+      </c>
+      <c r="F79">
+        <v>-0.01279692440958575</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08088997054248055</v>
+        <v>0.07934712733819721</v>
       </c>
       <c r="C80">
-        <v>-0.003068871896459654</v>
+        <v>-0.0002113032174635773</v>
       </c>
       <c r="D80">
-        <v>0.05282439039572177</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05347504019450913</v>
+      </c>
+      <c r="E80">
+        <v>-0.03714863701918893</v>
+      </c>
+      <c r="F80">
+        <v>0.02801336359220245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1201660430930371</v>
+        <v>0.1152324243644784</v>
       </c>
       <c r="C81">
-        <v>-0.03430733250168416</v>
+        <v>-0.03372440947446902</v>
       </c>
       <c r="D81">
-        <v>0.007639848109651939</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01217843739927954</v>
+      </c>
+      <c r="E81">
+        <v>-0.05154157117578592</v>
+      </c>
+      <c r="F81">
+        <v>-0.01853729316143616</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1656153149583448</v>
+        <v>0.1642579625087482</v>
       </c>
       <c r="C82">
-        <v>-0.02797785991260985</v>
+        <v>-0.02834382604085559</v>
       </c>
       <c r="D82">
-        <v>0.00567496214838444</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003060866224249763</v>
+      </c>
+      <c r="E82">
+        <v>-0.02478439493568759</v>
+      </c>
+      <c r="F82">
+        <v>-0.08334357854535977</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05995241563223809</v>
+        <v>0.05431494572394512</v>
       </c>
       <c r="C83">
-        <v>-0.00567635903815787</v>
+        <v>-0.003571447468356406</v>
       </c>
       <c r="D83">
-        <v>0.03741907670434173</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04072347763503138</v>
+      </c>
+      <c r="E83">
+        <v>0.0008229251054742235</v>
+      </c>
+      <c r="F83">
+        <v>0.03634284237070303</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05919318544557869</v>
+        <v>0.05497588416486428</v>
       </c>
       <c r="C84">
-        <v>-0.01337453838437988</v>
+        <v>-0.01058660168157604</v>
       </c>
       <c r="D84">
-        <v>0.07307737343328786</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07519818677765501</v>
+      </c>
+      <c r="E84">
+        <v>-0.01196261432632867</v>
+      </c>
+      <c r="F84">
+        <v>-0.01526847893985596</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1397819502824492</v>
+        <v>0.1348790859516826</v>
       </c>
       <c r="C85">
-        <v>-0.0316507049550875</v>
+        <v>-0.03100197741213116</v>
       </c>
       <c r="D85">
-        <v>0.005752711013699375</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009255377816742417</v>
+      </c>
+      <c r="E85">
+        <v>-0.035069434445024</v>
+      </c>
+      <c r="F85">
+        <v>-0.04905425710689826</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.09895412915296566</v>
+        <v>0.09202106801918052</v>
       </c>
       <c r="C86">
-        <v>0.002303636889801728</v>
+        <v>0.00545841967659789</v>
       </c>
       <c r="D86">
-        <v>0.01654854736760623</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05033668162802938</v>
+      </c>
+      <c r="E86">
+        <v>-0.2284609273246526</v>
+      </c>
+      <c r="F86">
+        <v>0.8955882186663019</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09427124723901165</v>
+        <v>0.09088636580652576</v>
       </c>
       <c r="C87">
-        <v>-0.02847252465392156</v>
+        <v>-0.02060371829220758</v>
       </c>
       <c r="D87">
-        <v>0.07061180066272525</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09002838287498061</v>
+      </c>
+      <c r="E87">
+        <v>0.0583235353260655</v>
+      </c>
+      <c r="F87">
+        <v>-0.04870375334407837</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06273625367524091</v>
+        <v>0.06102235220346957</v>
       </c>
       <c r="C88">
-        <v>-0.006086376644785179</v>
+        <v>-0.003126001165976223</v>
       </c>
       <c r="D88">
-        <v>0.04905954684318988</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04992889202545375</v>
+      </c>
+      <c r="E88">
+        <v>-0.026146298936138</v>
+      </c>
+      <c r="F88">
+        <v>-0.01368901663943989</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1192015681302937</v>
+        <v>0.1278827014002933</v>
       </c>
       <c r="C89">
-        <v>-0.007042342508314103</v>
+        <v>-0.01471565456853399</v>
       </c>
       <c r="D89">
-        <v>-0.2396485598984731</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2408007943967977</v>
+      </c>
+      <c r="E89">
+        <v>0.08975216012587109</v>
+      </c>
+      <c r="F89">
+        <v>0.00784092533042104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1390576079161667</v>
+        <v>0.1532705258325094</v>
       </c>
       <c r="C90">
-        <v>-0.02713394295115831</v>
+        <v>-0.03610338802220936</v>
       </c>
       <c r="D90">
-        <v>-0.2651908548416274</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2665551865845235</v>
+      </c>
+      <c r="E90">
+        <v>0.1150503191580559</v>
+      </c>
+      <c r="F90">
+        <v>0.008715855638897667</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1222110161886927</v>
+        <v>0.1198352617045472</v>
       </c>
       <c r="C91">
-        <v>-0.02228255723149977</v>
+        <v>-0.02227749444747776</v>
       </c>
       <c r="D91">
-        <v>-0.02115383605287152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01719060980989686</v>
+      </c>
+      <c r="E91">
+        <v>-0.05385223409432571</v>
+      </c>
+      <c r="F91">
+        <v>0.001666542256131459</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1399002486451495</v>
+        <v>0.146339491419753</v>
       </c>
       <c r="C92">
-        <v>-0.01805612308566245</v>
+        <v>-0.02707958208374396</v>
       </c>
       <c r="D92">
-        <v>-0.294674653649126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.291920937907662</v>
+      </c>
+      <c r="E92">
+        <v>0.1014077740126701</v>
+      </c>
+      <c r="F92">
+        <v>0.01918354391799638</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1427093367409008</v>
+        <v>0.1553269565862474</v>
       </c>
       <c r="C93">
-        <v>-0.02340045961244346</v>
+        <v>-0.03128032718143266</v>
       </c>
       <c r="D93">
-        <v>-0.2629079703580902</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2619687142875033</v>
+      </c>
+      <c r="E93">
+        <v>0.07457504529324153</v>
+      </c>
+      <c r="F93">
+        <v>-0.003154296063542503</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1333316404997107</v>
+        <v>0.125279692194007</v>
       </c>
       <c r="C94">
-        <v>-0.0289241388375248</v>
+        <v>-0.02650045274505115</v>
       </c>
       <c r="D94">
-        <v>0.03835151485817297</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04137198781847305</v>
+      </c>
+      <c r="E94">
+        <v>-0.05659450200607469</v>
+      </c>
+      <c r="F94">
+        <v>-0.0321850126325629</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1266460751321935</v>
+        <v>0.1295350882794513</v>
       </c>
       <c r="C95">
-        <v>-0.01093852452131291</v>
+        <v>-0.005653835723211258</v>
       </c>
       <c r="D95">
-        <v>0.0885817733372494</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09816912813794774</v>
+      </c>
+      <c r="E95">
+        <v>-0.05922555983180932</v>
+      </c>
+      <c r="F95">
+        <v>-0.003834078773179483</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1336688876958374</v>
+        <v>0.1256873184521045</v>
       </c>
       <c r="C96">
-        <v>0.9853238589088746</v>
+        <v>0.9853663842633867</v>
       </c>
       <c r="D96">
-        <v>-0.02026744203413626</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05021175794064562</v>
+      </c>
+      <c r="E96">
+        <v>-0.04979361439539257</v>
+      </c>
+      <c r="F96">
+        <v>-0.04301487661388568</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.193358329294958</v>
+        <v>0.1966679765734541</v>
       </c>
       <c r="C97">
-        <v>0.001355814768887994</v>
+        <v>0.001601640070126959</v>
       </c>
       <c r="D97">
-        <v>-0.0302634101961866</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.03036468202204427</v>
+      </c>
+      <c r="E97">
+        <v>-0.04032658344493171</v>
+      </c>
+      <c r="F97">
+        <v>0.1208358092774284</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2000302803250835</v>
+        <v>0.2060681485188313</v>
       </c>
       <c r="C98">
-        <v>-0.0139516929373796</v>
+        <v>-0.009998616825054081</v>
       </c>
       <c r="D98">
-        <v>0.01167772799936312</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01381995277180374</v>
+      </c>
+      <c r="E98">
+        <v>0.08136569482622279</v>
+      </c>
+      <c r="F98">
+        <v>0.09487350571884881</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05663773210943474</v>
+        <v>0.0559887949830714</v>
       </c>
       <c r="C99">
-        <v>0.001341682966540113</v>
+        <v>0.003416098358289797</v>
       </c>
       <c r="D99">
-        <v>0.03467442590380575</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04103841164548989</v>
+      </c>
+      <c r="E99">
+        <v>-0.02582125368945309</v>
+      </c>
+      <c r="F99">
+        <v>-0.002810851509485741</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1477708024614561</v>
+        <v>0.1336691687037032</v>
       </c>
       <c r="C100">
-        <v>0.03614041161436341</v>
+        <v>0.04803358563791489</v>
       </c>
       <c r="D100">
-        <v>0.3983611306847144</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3604757720459746</v>
+      </c>
+      <c r="E100">
+        <v>0.8801085880628198</v>
+      </c>
+      <c r="F100">
+        <v>0.1568936683043998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02620650968749167</v>
+        <v>0.02892141105412009</v>
       </c>
       <c r="C101">
-        <v>-0.01005587152673329</v>
+        <v>-0.009291484299014951</v>
       </c>
       <c r="D101">
-        <v>0.0292890162786252</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03003825492957538</v>
+      </c>
+      <c r="E101">
+        <v>-0.01826743912846917</v>
+      </c>
+      <c r="F101">
+        <v>0.0143326433761447</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
